--- a/biology/Botanique/Rosa_persica/Rosa_persica.xlsx
+++ b/biology/Botanique/Rosa_persica/Rosa_persica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rosa persica Michx. ex J.F.Gmel. est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier nain originaire des régions steppiques d'Asie centrale depuis l'Afghanistan et l'Iran jusqu'à la Sibérie occidentale vers le nord. Cette jolie fleur a été découverte au mois de janvier 1784 par le botaniste André Michaux, dans les monts Zagros, dans sa route entre Bouchehr et Chiraz[1]. Il a été le premier à en faire une description scientifique et à en rapporter des graines en Europe.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rosa persica Michx. ex J.F.Gmel. est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier nain originaire des régions steppiques d'Asie centrale depuis l'Afghanistan et l'Iran jusqu'à la Sibérie occidentale vers le nord. Cette jolie fleur a été découverte au mois de janvier 1784 par le botaniste André Michaux, dans les monts Zagros, dans sa route entre Bouchehr et Chiraz. Il a été le premier à en faire une description scientifique et à en rapporter des graines en Europe.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses feuilles sont simples, sans stipules, ce qui caractérise la forme Hulthemia. C'est à cause de ce caractère qu'un genre Hulthemia avait été séparé du genre Rosa avant d'être finalement abandonné.
-Cet arbuste bas (50 à 80 cm) a des tiges brun rouge très drageonnantes. Les feuilles simples de 1,5 à 3 cm de long sont dentelées. Les fleurs isolées sont jaune d'or avec une tache brune à la base des pétales[2].
+Cet arbuste bas (50 à 80 cm) a des tiges brun rouge très drageonnantes. Les feuilles simples de 1,5 à 3 cm de long sont dentelées. Les fleurs isolées sont jaune d'or avec une tache brune à la base des pétales.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Cultivars et hybrides</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rosa × hardii ou xHulthemosa hardii (Hulthemia persica × Rosa clinophylla) obtenu dans les jardins du Luxembourg avant 1836. Il a été introduit en culture par Hardy.  Haut de 2 m, il présente un feuillage vert sombre et des fleurs simples jaune vif avec une tache rouge à la base des sépales.
 il a existé au moins un autre hybride spontané avec un spécimen du genre rosa.</t>
